--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="80">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication treatment</t>
+    <t>The business identifier(s) for the medication summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.subject</t>
@@ -163,6 +163,9 @@
 </t>
   </si>
   <si>
+    <t>From which patient the summary is from</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.status</t>
   </si>
   <si>
@@ -170,7 +173,13 @@
 </t>
   </si>
   <si>
+    <t>status of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.intent</t>
+  </si>
+  <si>
+    <t>intent for the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.category</t>
@@ -180,6 +189,9 @@
 </t>
   </si>
   <si>
+    <t>category of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.title</t>
   </si>
   <si>
@@ -187,7 +199,13 @@
 </t>
   </si>
   <si>
+    <t>Title of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.description</t>
+  </si>
+  <si>
+    <t>Description of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.encounter</t>
@@ -197,6 +215,9 @@
 </t>
   </si>
   <si>
+    <t>Encounter Regarding the summary creation</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.period</t>
   </si>
   <si>
@@ -204,6 +225,9 @@
 </t>
   </si>
   <si>
+    <t>Period of time that the summary covers</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.created</t>
   </si>
   <si>
@@ -211,6 +235,9 @@
 </t>
   </si>
   <si>
+    <t>Date of the creation of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.author</t>
   </si>
   <si>
@@ -218,11 +245,17 @@
 </t>
   </si>
   <si>
+    <t>author of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.supportingInfo</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
+  </si>
+  <si>
+    <t>Supporting Info for the summary, like context or aditional information considered relevant</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.goal</t>
@@ -400,7 +433,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -763,8 +796,12 @@
       <c r="J4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -834,7 +871,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -857,10 +894,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -910,7 +951,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -930,7 +971,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -953,10 +994,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1006,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -1026,7 +1071,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1049,10 +1094,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1102,7 +1151,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1122,7 +1171,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1145,10 +1194,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1198,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1218,7 +1271,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1241,10 +1294,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1294,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1314,7 +1371,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1337,10 +1394,14 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1390,7 +1451,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1410,7 +1471,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1433,10 +1494,14 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1486,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1506,7 +1571,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1529,10 +1594,14 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1582,7 +1651,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1602,7 +1671,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1625,10 +1694,14 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1678,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1698,7 +1771,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1721,10 +1794,14 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1774,7 +1851,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1794,7 +1871,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1817,13 +1894,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1874,7 +1951,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -173,13 +173,13 @@
 </t>
   </si>
   <si>
-    <t>status of the summary</t>
+    <t>Status of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.intent</t>
   </si>
   <si>
-    <t>intent for the summary</t>
+    <t>Intent for the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.category</t>
@@ -189,7 +189,7 @@
 </t>
   </si>
   <si>
-    <t>category of the summary</t>
+    <t>Category of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.title</t>
@@ -199,13 +199,13 @@
 </t>
   </si>
   <si>
-    <t>Title of the summary</t>
+    <t>Short title of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.description</t>
   </si>
   <si>
-    <t>Description of the summary</t>
+    <t>Textual description of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.encounter</t>
@@ -215,7 +215,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter Regarding the summary creation</t>
+    <t>Encounter regarding the summary creation</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.period</t>
@@ -245,7 +245,7 @@
 </t>
   </si>
   <si>
-    <t>author of the summary</t>
+    <t>Author of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.supportingInfo</t>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Treatment View logical model</t>
+  </si>
+  <si>
+    <t>A model for representing a summary view of a patient's medication</t>
   </si>
   <si>
     <t>Base</t>
@@ -601,7 +604,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -651,7 +656,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -671,7 +676,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -682,7 +687,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -694,13 +699,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -751,13 +756,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -771,7 +776,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -779,10 +784,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -794,13 +799,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -851,13 +856,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -871,7 +876,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -879,10 +884,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -894,13 +899,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -951,13 +956,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -971,7 +976,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -979,10 +984,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -994,13 +999,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1051,13 +1056,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1071,7 +1076,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1094,13 +1099,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1151,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1171,7 +1176,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1182,7 +1187,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1194,13 +1199,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1251,13 +1256,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1271,7 +1276,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1282,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1294,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1351,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1371,7 +1376,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1382,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1394,13 +1399,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1451,13 +1456,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1471,7 +1476,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1482,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1494,13 +1499,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1551,13 +1556,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1571,7 +1576,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1582,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1594,13 +1599,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1651,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1671,7 +1676,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1682,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1694,13 +1699,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1751,13 +1756,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1771,7 +1776,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1794,13 +1799,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1851,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1871,7 +1876,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1894,13 +1899,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1951,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Treatment View logical model</t>
+    <t>[Logical Model] - Summary View</t>
   </si>
   <si>
     <t>A model for representing a summary view of a patient's medication</t>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Summary View</t>
   </si>
   <si>
-    <t>A model for representing a summary view of a patient's medication</t>
+    <t>A model for representing a summary view of a patient's medication.</t>
   </si>
   <si>
     <t>Base</t>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>[Logical Model] - Summary View</t>
-  </si>
-  <si>
-    <t>A model for representing a summary view of a patient's medication.</t>
+    <t>Medication Record Treatment View logical model</t>
   </si>
   <si>
     <t>Base</t>
@@ -156,7 +153,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication summary</t>
+    <t>The business identifier(s) for the medication treatment</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.subject</t>
@@ -166,9 +163,6 @@
 </t>
   </si>
   <si>
-    <t>From which patient the summary is from</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.status</t>
   </si>
   <si>
@@ -176,13 +170,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the summary</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.intent</t>
-  </si>
-  <si>
-    <t>Intent for the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.category</t>
@@ -192,9 +180,6 @@
 </t>
   </si>
   <si>
-    <t>Category of the summary</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.title</t>
   </si>
   <si>
@@ -202,13 +187,7 @@
 </t>
   </si>
   <si>
-    <t>Short title of the summary</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.description</t>
-  </si>
-  <si>
-    <t>Textual description of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.encounter</t>
@@ -218,9 +197,6 @@
 </t>
   </si>
   <si>
-    <t>Encounter regarding the summary creation</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.period</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
 </t>
   </si>
   <si>
-    <t>Period of time that the summary covers</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.created</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
 </t>
   </si>
   <si>
-    <t>Date of the creation of the summary</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.author</t>
   </si>
   <si>
@@ -248,17 +218,11 @@
 </t>
   </si>
   <si>
-    <t>Author of the summary</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordSummaryView.supportingInfo</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>Supporting Info for the summary, like context or aditional information considered relevant</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.goal</t>
@@ -436,7 +400,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -604,9 +568,7 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -656,7 +618,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -676,7 +638,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -687,25 +649,25 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -756,13 +718,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -776,7 +738,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -784,10 +746,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -799,14 +761,10 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -856,13 +814,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -876,7 +834,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -884,10 +842,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -899,14 +857,10 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -956,13 +910,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -976,7 +930,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -984,10 +938,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -999,14 +953,10 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1056,13 +1006,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1076,7 +1026,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1099,14 +1049,10 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1156,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1176,7 +1122,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1187,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1199,14 +1145,10 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1256,13 +1198,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1276,7 +1218,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1287,7 +1229,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1299,14 +1241,10 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1356,13 +1294,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1376,7 +1314,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1387,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1399,14 +1337,10 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1456,13 +1390,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1476,7 +1410,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1487,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1499,14 +1433,10 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1556,13 +1486,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1576,7 +1506,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1587,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1599,14 +1529,10 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1656,13 +1582,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1676,7 +1602,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1687,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1699,14 +1625,10 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1756,13 +1678,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1776,7 +1698,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1799,14 +1721,10 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1856,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1876,7 +1794,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1899,13 +1817,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1956,7 +1874,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordSummaryView.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Treatment View logical model</t>
+    <t>[Logical Model] - Summary View</t>
+  </si>
+  <si>
+    <t>A model for representing a summary view of a patient's medication.</t>
   </si>
   <si>
     <t>Base</t>
@@ -153,7 +156,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication treatment</t>
+    <t>The business identifier(s) for the medication summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.subject</t>
@@ -163,6 +166,9 @@
 </t>
   </si>
   <si>
+    <t>From which patient the summary is from</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.status</t>
   </si>
   <si>
@@ -170,7 +176,13 @@
 </t>
   </si>
   <si>
+    <t>Status of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.intent</t>
+  </si>
+  <si>
+    <t>Intent for the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.category</t>
@@ -180,6 +192,9 @@
 </t>
   </si>
   <si>
+    <t>Category of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.title</t>
   </si>
   <si>
@@ -187,7 +202,13 @@
 </t>
   </si>
   <si>
+    <t>Short title of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.description</t>
+  </si>
+  <si>
+    <t>Textual description of the summary</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.encounter</t>
@@ -197,6 +218,9 @@
 </t>
   </si>
   <si>
+    <t>Encounter regarding the summary creation</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.period</t>
   </si>
   <si>
@@ -204,6 +228,9 @@
 </t>
   </si>
   <si>
+    <t>Period of time that the summary covers</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.created</t>
   </si>
   <si>
@@ -211,6 +238,9 @@
 </t>
   </si>
   <si>
+    <t>Date of the creation of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.author</t>
   </si>
   <si>
@@ -218,11 +248,17 @@
 </t>
   </si>
   <si>
+    <t>Author of the summary</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordSummaryView.supportingInfo</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
+  </si>
+  <si>
+    <t>Supporting Info for the summary, like context or aditional information considered relevant</t>
   </si>
   <si>
     <t>BeModelMedicationRecordSummaryView.goal</t>
@@ -400,7 +436,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -568,7 +604,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -618,7 +656,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -638,7 +676,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -649,7 +687,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -661,13 +699,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -718,13 +756,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -738,7 +776,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -746,10 +784,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -761,10 +799,14 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -814,13 +856,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -834,7 +876,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -842,10 +884,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -857,10 +899,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -910,13 +956,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -930,7 +976,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -938,10 +984,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -953,10 +999,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1006,13 +1056,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1026,7 +1076,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1049,10 +1099,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1102,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1122,7 +1176,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1133,7 +1187,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1145,10 +1199,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1198,13 +1256,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1218,7 +1276,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1229,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1241,10 +1299,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1294,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1314,7 +1376,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1325,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1337,10 +1399,14 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1390,13 +1456,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1410,7 +1476,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1421,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1433,10 +1499,14 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1486,13 +1556,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1506,7 +1576,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1517,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1529,10 +1599,14 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1582,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1602,7 +1676,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1613,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1625,10 +1699,14 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1678,13 +1756,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1698,7 +1776,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1721,10 +1799,14 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1774,7 +1856,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1794,7 +1876,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1817,13 +1899,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1874,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
